--- a/mozart2cbo5_conv_table.xlsx
+++ b/mozart2cbo5_conv_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilo/OneDrive - Universidad de los Andes/Estudio/Tesis_maestría/Code/Emissions_conversor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ca_moreno12_uniandes_edu_co/Documents/Estudio/Tesis_maestría/Code/Emissions_conversor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF48266-299A-1743-AB7D-0BC6B92FA3DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{2EF48266-299A-1743-AB7D-0BC6B92FA3DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{225D0ACF-7C9E-FF42-AB6C-D70E7757CF5D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1186,6 +1186,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1488,20 +1492,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26:D26"/>
+      <selection pane="bottomRight" activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="8.83203125" style="4"/>
     <col min="6" max="6" width="18.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4"/>
+    <col min="8" max="8" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1514,7 +1520,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1526,7 +1532,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1549,7 +1555,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2">
@@ -1561,7 +1567,7 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
@@ -1584,7 +1590,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E3">
@@ -1596,7 +1602,7 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
@@ -1609,7 +1615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1628,7 +1634,7 @@
       <c r="F4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1774,7 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E10">
@@ -1780,7 +1786,7 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
@@ -1803,7 +1809,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E11">
@@ -1815,7 +1821,7 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I11" t="s">
@@ -1838,7 +1844,7 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E12">
@@ -1850,7 +1856,7 @@
       <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I12" t="s">
@@ -1873,7 +1879,7 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E13">
@@ -1885,7 +1891,7 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="I13" t="s">
@@ -1898,7 +1904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1933,7 +1939,7 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E15">
@@ -1945,7 +1951,7 @@
       <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="I15" t="s">
@@ -1962,7 +1968,7 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E16">
@@ -1994,7 +2000,7 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E17">
@@ -2010,7 +2016,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2045,7 +2051,7 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E19">
@@ -2071,7 +2077,7 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E20">
@@ -2083,7 +2089,7 @@
       <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I20" t="s">
@@ -2106,7 +2112,7 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E21">
@@ -2118,7 +2124,7 @@
       <c r="G21" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I21" t="s">
@@ -2141,7 +2147,7 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E22">
@@ -2173,7 +2179,7 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E23">
@@ -2185,7 +2191,7 @@
       <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I23" t="s">
@@ -2208,7 +2214,7 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E24">
@@ -2234,7 +2240,7 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E25">
@@ -2256,7 +2262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2285,7 +2291,7 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E27">
@@ -2297,7 +2303,7 @@
       <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I27" t="s">
@@ -2320,7 +2326,7 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E28">
@@ -2332,7 +2338,7 @@
       <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I28" t="s">
@@ -2355,7 +2361,7 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E29">
@@ -2367,7 +2373,7 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I29" t="s">
@@ -2390,7 +2396,7 @@
       <c r="C30">
         <v>0.5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E30">
@@ -2402,7 +2408,7 @@
       <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I30" t="s">
@@ -2425,7 +2431,7 @@
       <c r="C31">
         <v>0.5</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E31">
@@ -2437,7 +2443,7 @@
       <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I31" t="s">
@@ -2460,7 +2466,7 @@
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E32">
@@ -2472,7 +2478,7 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I32" t="s">
@@ -2495,7 +2501,7 @@
       <c r="C33">
         <v>1.5</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E33">
@@ -2507,7 +2513,7 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I33" t="s">
@@ -2530,7 +2536,7 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E34">
@@ -2542,7 +2548,7 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I34" t="s">
@@ -2565,7 +2571,7 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E35">
@@ -2577,7 +2583,7 @@
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I35" t="s">
@@ -2600,7 +2606,7 @@
       <c r="C36">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E36">
@@ -2612,7 +2618,7 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I36" t="s">
@@ -2635,7 +2641,7 @@
       <c r="C37">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E37">
@@ -2647,7 +2653,7 @@
       <c r="G37" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="8" t="s">
         <v>87</v>
       </c>
       <c r="I37" t="s">
@@ -2670,7 +2676,7 @@
       <c r="C38">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E38">
@@ -2682,7 +2688,7 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="8" t="s">
         <v>88</v>
       </c>
       <c r="I38" t="s">
@@ -2705,7 +2711,7 @@
       <c r="C39">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E39">
@@ -2717,7 +2723,7 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="8" t="s">
         <v>89</v>
       </c>
       <c r="I39" t="s">
@@ -2740,7 +2746,7 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E40">
@@ -2752,7 +2758,7 @@
       <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="8" t="s">
         <v>91</v>
       </c>
       <c r="I40" t="s">
@@ -2775,7 +2781,7 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E41">
@@ -2787,7 +2793,7 @@
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I41" t="s">
@@ -2810,7 +2816,7 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E42">
@@ -2842,7 +2848,7 @@
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E43">
@@ -2874,7 +2880,7 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E44">
@@ -2886,7 +2892,7 @@
       <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="8" t="s">
         <v>101</v>
       </c>
       <c r="I44" t="s">
@@ -2903,7 +2909,7 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E45">
@@ -2935,7 +2941,7 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E46">
@@ -2967,7 +2973,7 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E47">
@@ -2999,7 +3005,7 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E48">
@@ -3011,7 +3017,7 @@
       <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="8" t="s">
         <v>112</v>
       </c>
       <c r="I48" t="s">
@@ -3024,7 +3030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -3064,7 +3070,7 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E50">
@@ -3076,7 +3082,7 @@
       <c r="G50" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="8" t="s">
         <v>116</v>
       </c>
       <c r="I50" t="s">
@@ -3089,7 +3095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -3114,7 +3120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -3158,7 +3164,7 @@
       <c r="F53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -3202,7 +3208,7 @@
       <c r="F55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -3221,7 +3227,7 @@
       <c r="F56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -3240,7 +3246,7 @@
       <c r="F57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -3259,7 +3265,7 @@
       <c r="F58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -3278,7 +3284,7 @@
       <c r="F59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -3297,7 +3303,7 @@
       <c r="F60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3316,7 +3322,7 @@
       <c r="F61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3335,7 +3341,7 @@
       <c r="F62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -3354,7 +3360,7 @@
       <c r="F63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -3373,7 +3379,7 @@
       <c r="F64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>140</v>
       </c>
@@ -3392,7 +3398,7 @@
       <c r="F65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -3411,7 +3417,7 @@
       <c r="F66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -3430,7 +3436,7 @@
       <c r="F67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -3449,7 +3455,7 @@
       <c r="F68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3468,7 +3474,7 @@
       <c r="F69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -3487,7 +3493,7 @@
       <c r="F70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -3506,7 +3512,7 @@
       <c r="F71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -3525,7 +3531,7 @@
       <c r="F72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -3544,7 +3550,7 @@
       <c r="F73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -3563,7 +3569,7 @@
       <c r="F74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -3592,7 +3598,7 @@
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E76">
@@ -3604,7 +3610,7 @@
       <c r="G76" t="s">
         <v>114</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="8" t="s">
         <v>150</v>
       </c>
       <c r="I76" t="s">
@@ -3621,7 +3627,7 @@
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E77">
@@ -3633,7 +3639,7 @@
       <c r="G77" t="s">
         <v>114</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I77" t="s">
@@ -3650,7 +3656,7 @@
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E78">
@@ -3662,7 +3668,7 @@
       <c r="G78" t="s">
         <v>114</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I78" t="s">
@@ -3679,7 +3685,7 @@
       <c r="C79">
         <v>1</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E79">
@@ -3691,7 +3697,7 @@
       <c r="G79" t="s">
         <v>114</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I79" t="s">
@@ -3708,7 +3714,7 @@
       <c r="C80">
         <v>1</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E80">
@@ -3720,7 +3726,7 @@
       <c r="G80" t="s">
         <v>114</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="8" t="s">
         <v>153</v>
       </c>
       <c r="I80" t="s">
@@ -3737,7 +3743,7 @@
       <c r="C81">
         <v>1</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E81">
@@ -3749,7 +3755,7 @@
       <c r="G81" t="s">
         <v>114</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="8" t="s">
         <v>162</v>
       </c>
       <c r="I81" t="s">
@@ -3766,7 +3772,7 @@
       <c r="C82">
         <v>1</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E82">
@@ -3778,7 +3784,7 @@
       <c r="G82" t="s">
         <v>114</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="8" t="s">
         <v>162</v>
       </c>
       <c r="I82" t="s">
@@ -3795,7 +3801,7 @@
       <c r="C83">
         <v>1</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E83">
@@ -3807,7 +3813,7 @@
       <c r="G83" t="s">
         <v>114</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I83" t="s">
@@ -3824,7 +3830,7 @@
       <c r="C84">
         <v>1</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E84">
@@ -3836,7 +3842,7 @@
       <c r="G84" t="s">
         <v>114</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I84" t="s">
@@ -3853,7 +3859,7 @@
       <c r="C85">
         <v>1</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E85">
@@ -3865,7 +3871,7 @@
       <c r="G85" t="s">
         <v>114</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I85" t="s">
@@ -3882,7 +3888,7 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E86">
@@ -3894,7 +3900,7 @@
       <c r="G86" t="s">
         <v>114</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I86" t="s">
@@ -3911,7 +3917,7 @@
       <c r="C87">
         <v>1</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E87">
@@ -3923,7 +3929,7 @@
       <c r="G87" t="s">
         <v>114</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I87" t="s">
@@ -3940,7 +3946,7 @@
       <c r="C88">
         <v>1</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E88">
@@ -3952,7 +3958,7 @@
       <c r="G88" t="s">
         <v>114</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I88" t="s">
@@ -3969,7 +3975,7 @@
       <c r="C89">
         <v>1</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E89">
@@ -3981,7 +3987,7 @@
       <c r="G89" t="s">
         <v>114</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="8" t="s">
         <v>180</v>
       </c>
       <c r="I89" t="s">
@@ -4001,7 +4007,7 @@
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E90">
@@ -4013,7 +4019,7 @@
       <c r="G90" t="s">
         <v>114</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="H90" s="8" t="s">
         <v>180</v>
       </c>
       <c r="I90" t="s">
@@ -4033,7 +4039,7 @@
       <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E91">
@@ -4045,7 +4051,7 @@
       <c r="G91" t="s">
         <v>114</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="H91" s="8" t="s">
         <v>185</v>
       </c>
       <c r="I91" t="s">
@@ -4062,7 +4068,7 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E92">
@@ -4074,7 +4080,7 @@
       <c r="G92" t="s">
         <v>114</v>
       </c>
-      <c r="H92" s="4" t="s">
+      <c r="H92" s="8" t="s">
         <v>185</v>
       </c>
       <c r="I92" t="s">
@@ -4091,7 +4097,7 @@
       <c r="C93">
         <v>1</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="4" t="s">
         <v>190</v>
       </c>
       <c r="E93">
@@ -4103,7 +4109,7 @@
       <c r="G93" t="s">
         <v>114</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="8" t="s">
         <v>190</v>
       </c>
       <c r="I93" t="s">
@@ -4120,7 +4126,7 @@
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="4" t="s">
         <v>190</v>
       </c>
       <c r="E94">
@@ -4132,14 +4138,14 @@
       <c r="G94" t="s">
         <v>114</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="8" t="s">
         <v>190</v>
       </c>
       <c r="I94" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -4150,7 +4156,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>196</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -4179,8 +4185,11 @@
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="4" t="s">
         <v>167</v>
+      </c>
+      <c r="E98">
+        <v>74.078500000000005</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>200</v>
@@ -4188,7 +4197,7 @@
       <c r="G98" t="s">
         <v>13</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I98" t="s">
@@ -4208,8 +4217,11 @@
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="4" t="s">
         <v>167</v>
+      </c>
+      <c r="E99">
+        <v>100.11579999999999</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>202</v>
@@ -4217,14 +4229,14 @@
       <c r="G99" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="8" t="s">
         <v>167</v>
       </c>
       <c r="I99" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>203</v>
       </c>
@@ -4236,7 +4248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>204</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>205</v>
       </c>
@@ -4260,7 +4272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>206</v>
       </c>
@@ -4272,7 +4284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>207</v>
       </c>
@@ -4284,7 +4296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>208</v>
       </c>
@@ -4296,7 +4308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>209</v>
       </c>
@@ -4308,7 +4320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>210</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>211</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>212</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>213</v>
       </c>
@@ -4356,7 +4368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
         <v>214</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>215</v>
       </c>
@@ -4380,7 +4392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>216</v>
       </c>
@@ -4392,7 +4404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>217</v>
       </c>
@@ -4404,7 +4416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>218</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>219</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>220</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>221</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>222</v>
       </c>
@@ -4464,7 +4476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>223</v>
       </c>
@@ -4476,7 +4488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
         <v>224</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>225</v>
       </c>
@@ -4500,7 +4512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>226</v>
       </c>
@@ -4512,7 +4524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>227</v>
       </c>
@@ -4524,7 +4536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>228</v>
       </c>
@@ -4536,7 +4548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>229</v>
       </c>
@@ -4548,7 +4560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>230</v>
       </c>
@@ -4560,7 +4572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>231</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>232</v>
       </c>
@@ -4584,7 +4596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>233</v>
       </c>
@@ -4596,7 +4608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>234</v>
       </c>
@@ -4608,7 +4620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>235</v>
       </c>
@@ -4620,7 +4632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>236</v>
       </c>
@@ -4632,7 +4644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>237</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>238</v>
       </c>
@@ -4656,7 +4668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>239</v>
       </c>
@@ -4668,7 +4680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>240</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>241</v>
       </c>
@@ -4692,7 +4704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>242</v>
       </c>
@@ -4704,7 +4716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>243</v>
       </c>
@@ -4716,7 +4728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>244</v>
       </c>
@@ -4728,7 +4740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>245</v>
       </c>
@@ -4740,7 +4752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>246</v>
       </c>
@@ -4752,7 +4764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>247</v>
       </c>
@@ -4764,7 +4776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>248</v>
       </c>
@@ -4776,7 +4788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>249</v>
       </c>
@@ -4788,7 +4800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>250</v>
       </c>
@@ -4800,7 +4812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>251</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D149" t="s">
         <v>252</v>
       </c>
@@ -4824,7 +4836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>253</v>
       </c>
@@ -4836,7 +4848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>254</v>
       </c>
@@ -4848,7 +4860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>255</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
         <v>256</v>
       </c>
@@ -4872,7 +4884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
         <v>257</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>258</v>
       </c>
@@ -4896,7 +4908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>259</v>
       </c>
@@ -4908,7 +4920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>260</v>
       </c>
@@ -4920,7 +4932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
         <v>261</v>
       </c>
@@ -4932,7 +4944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
         <v>262</v>
       </c>
@@ -4944,7 +4956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
         <v>263</v>
       </c>
@@ -4956,7 +4968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
         <v>264</v>
       </c>
@@ -4968,7 +4980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
         <v>265</v>
       </c>
@@ -4980,7 +4992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
         <v>266</v>
       </c>
@@ -4992,7 +5004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
         <v>267</v>
       </c>
@@ -5004,7 +5016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>268</v>
       </c>
@@ -5016,7 +5028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>269</v>
       </c>
@@ -5028,7 +5040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>270</v>
       </c>
@@ -5040,7 +5052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
         <v>271</v>
       </c>
@@ -5052,10 +5064,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>273</v>
       </c>
+      <c r="D169"/>
       <c r="F169"/>
       <c r="H169"/>
       <c r="J169" t="s">
@@ -5065,10 +5078,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>274</v>
       </c>
+      <c r="D170"/>
       <c r="F170"/>
       <c r="H170"/>
       <c r="J170" t="s">
@@ -5078,10 +5092,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>89</v>
       </c>
+      <c r="D171"/>
       <c r="F171"/>
       <c r="H171"/>
       <c r="J171" t="s">
@@ -5091,10 +5106,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>275</v>
       </c>
+      <c r="D172"/>
       <c r="F172"/>
       <c r="H172"/>
       <c r="J172" t="s">
@@ -5104,10 +5120,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>276</v>
       </c>
+      <c r="D173"/>
       <c r="F173"/>
       <c r="H173"/>
       <c r="J173" t="s">
@@ -5117,10 +5134,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>277</v>
       </c>
+      <c r="D174"/>
       <c r="F174"/>
       <c r="H174"/>
       <c r="J174" t="s">
@@ -5130,10 +5148,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>278</v>
       </c>
+      <c r="D175"/>
       <c r="F175"/>
       <c r="H175"/>
       <c r="J175" t="s">
@@ -5143,10 +5162,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>279</v>
       </c>
+      <c r="D176"/>
       <c r="F176"/>
       <c r="H176"/>
       <c r="J176" t="s">
@@ -5156,10 +5176,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>213</v>
       </c>
+      <c r="D177"/>
       <c r="F177"/>
       <c r="H177"/>
       <c r="J177" t="s">
@@ -5169,10 +5190,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>280</v>
       </c>
+      <c r="D178"/>
       <c r="F178"/>
       <c r="H178"/>
       <c r="J178" t="s">
@@ -5182,10 +5204,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>281</v>
       </c>
+      <c r="D179"/>
       <c r="F179"/>
       <c r="H179"/>
       <c r="J179" t="s">
@@ -5195,10 +5218,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>282</v>
       </c>
+      <c r="D180"/>
       <c r="F180"/>
       <c r="H180"/>
       <c r="J180" t="s">
@@ -5208,10 +5232,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>283</v>
       </c>
+      <c r="D181"/>
       <c r="F181"/>
       <c r="H181"/>
       <c r="J181" t="s">
@@ -5221,10 +5246,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>284</v>
       </c>
+      <c r="D182"/>
       <c r="F182"/>
       <c r="H182"/>
       <c r="J182" t="s">
@@ -5234,10 +5260,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>285</v>
       </c>
+      <c r="D183"/>
       <c r="F183"/>
       <c r="H183"/>
       <c r="J183" t="s">
@@ -5247,10 +5274,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>286</v>
       </c>
+      <c r="D184"/>
       <c r="F184"/>
       <c r="H184"/>
       <c r="J184" t="s">
@@ -5260,10 +5288,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>287</v>
       </c>
+      <c r="D185"/>
       <c r="F185"/>
       <c r="H185"/>
       <c r="J185" t="s">
@@ -5273,10 +5302,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>288</v>
       </c>
+      <c r="D186"/>
       <c r="F186"/>
       <c r="H186"/>
       <c r="J186" t="s">
@@ -5286,10 +5316,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>289</v>
       </c>
+      <c r="D187"/>
       <c r="F187"/>
       <c r="H187"/>
       <c r="J187" t="s">
@@ -5299,10 +5330,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>19</v>
       </c>
+      <c r="D188"/>
       <c r="F188"/>
       <c r="H188"/>
       <c r="J188" t="s">
@@ -5312,10 +5344,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>290</v>
       </c>
+      <c r="D189"/>
       <c r="F189"/>
       <c r="H189"/>
       <c r="J189" t="s">
@@ -5325,10 +5358,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>291</v>
       </c>
+      <c r="D190"/>
       <c r="F190"/>
       <c r="H190"/>
       <c r="J190" t="s">
@@ -5338,10 +5372,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>292</v>
       </c>
+      <c r="D191"/>
       <c r="F191"/>
       <c r="H191"/>
       <c r="J191" t="s">
@@ -5351,10 +5386,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>294</v>
       </c>
+      <c r="D192"/>
       <c r="F192"/>
       <c r="H192"/>
       <c r="J192" t="s">
@@ -5364,10 +5400,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>295</v>
       </c>
+      <c r="D193"/>
       <c r="F193"/>
       <c r="H193"/>
       <c r="J193" t="s">
@@ -5377,10 +5414,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>296</v>
       </c>
+      <c r="D194"/>
       <c r="F194"/>
       <c r="H194"/>
       <c r="J194" t="s">
@@ -5390,10 +5428,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>298</v>
       </c>
+      <c r="D195"/>
       <c r="F195"/>
       <c r="H195"/>
       <c r="J195" t="s">
@@ -5403,10 +5442,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>299</v>
       </c>
+      <c r="D196"/>
       <c r="F196"/>
       <c r="H196"/>
       <c r="J196" t="s">
@@ -5416,10 +5456,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>301</v>
       </c>
+      <c r="D197"/>
       <c r="F197"/>
       <c r="H197"/>
       <c r="J197" t="s">
@@ -5429,10 +5470,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>302</v>
       </c>
+      <c r="D198"/>
       <c r="F198"/>
       <c r="H198"/>
       <c r="J198" t="s">
@@ -5442,10 +5484,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>304</v>
       </c>
+      <c r="D199"/>
       <c r="F199"/>
       <c r="H199"/>
       <c r="J199" t="s">
@@ -5455,10 +5498,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>305</v>
       </c>
+      <c r="D200"/>
       <c r="F200"/>
       <c r="H200"/>
       <c r="J200" t="s">
@@ -5468,10 +5512,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>307</v>
       </c>
+      <c r="D201"/>
       <c r="F201"/>
       <c r="H201"/>
       <c r="J201" t="s">
@@ -5481,10 +5526,11 @@
         <v>306</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>308</v>
       </c>
+      <c r="D202"/>
       <c r="F202"/>
       <c r="H202"/>
       <c r="J202" t="s">
@@ -5494,10 +5540,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>309</v>
       </c>
+      <c r="D203"/>
       <c r="F203"/>
       <c r="H203"/>
       <c r="J203" t="s">
@@ -5507,10 +5554,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>311</v>
       </c>
+      <c r="D204"/>
       <c r="F204"/>
       <c r="H204"/>
       <c r="J204" t="s">
@@ -5520,10 +5568,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>312</v>
       </c>
+      <c r="D205"/>
       <c r="F205"/>
       <c r="H205"/>
       <c r="J205" t="s">
@@ -5533,10 +5582,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>313</v>
       </c>
+      <c r="D206"/>
       <c r="F206"/>
       <c r="H206"/>
       <c r="J206" t="s">
@@ -5546,10 +5596,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>314</v>
       </c>
+      <c r="D207"/>
       <c r="F207"/>
       <c r="H207"/>
       <c r="J207" t="s">
@@ -5559,10 +5610,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>315</v>
       </c>
+      <c r="D208"/>
       <c r="F208"/>
       <c r="H208"/>
       <c r="J208" t="s">
@@ -5572,10 +5624,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>316</v>
       </c>
+      <c r="D209"/>
       <c r="F209"/>
       <c r="H209"/>
       <c r="J209" t="s">
@@ -5585,10 +5638,11 @@
         <v>317</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>318</v>
       </c>
+      <c r="D210"/>
       <c r="F210"/>
       <c r="H210"/>
       <c r="J210" t="s">
@@ -5598,10 +5652,11 @@
         <v>319</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>320</v>
       </c>
+      <c r="D211"/>
       <c r="F211"/>
       <c r="H211"/>
       <c r="J211" t="s">
@@ -5611,10 +5666,11 @@
         <v>317</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>321</v>
       </c>
+      <c r="D212"/>
       <c r="F212"/>
       <c r="H212"/>
       <c r="J212" t="s">
@@ -5624,10 +5680,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>323</v>
       </c>
+      <c r="D213"/>
       <c r="F213"/>
       <c r="H213"/>
       <c r="J213" t="s">
@@ -5637,10 +5694,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>325</v>
       </c>
+      <c r="D214"/>
       <c r="F214"/>
       <c r="H214"/>
       <c r="J214" t="s">
@@ -5650,10 +5708,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>326</v>
       </c>
+      <c r="D215"/>
       <c r="F215"/>
       <c r="H215"/>
       <c r="J215" t="s">
@@ -5663,10 +5722,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>327</v>
       </c>
+      <c r="D216"/>
       <c r="F216"/>
       <c r="H216"/>
       <c r="J216" t="s">
@@ -5676,10 +5736,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>328</v>
       </c>
+      <c r="D217"/>
       <c r="F217"/>
       <c r="H217"/>
       <c r="J217" t="s">
@@ -5689,10 +5750,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>330</v>
       </c>
+      <c r="D218"/>
       <c r="F218"/>
       <c r="H218"/>
       <c r="J218" t="s">
@@ -5702,10 +5764,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>331</v>
       </c>
+      <c r="D219"/>
       <c r="F219"/>
       <c r="H219"/>
       <c r="J219" t="s">
@@ -5715,10 +5778,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>332</v>
       </c>
+      <c r="D220"/>
       <c r="F220"/>
       <c r="H220"/>
       <c r="J220" t="s">
@@ -5728,10 +5792,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>333</v>
       </c>
+      <c r="D221"/>
       <c r="F221"/>
       <c r="H221"/>
       <c r="J221" t="s">
@@ -5741,10 +5806,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>334</v>
       </c>
+      <c r="D222"/>
       <c r="F222"/>
       <c r="H222"/>
       <c r="J222" t="s">
@@ -5754,10 +5820,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>335</v>
       </c>
+      <c r="D223"/>
       <c r="F223"/>
       <c r="H223"/>
       <c r="J223" t="s">
@@ -5767,10 +5834,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>336</v>
       </c>
+      <c r="D224"/>
       <c r="F224"/>
       <c r="H224"/>
       <c r="J224" t="s">
@@ -5780,10 +5848,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>337</v>
       </c>
+      <c r="D225"/>
       <c r="F225"/>
       <c r="H225"/>
       <c r="J225" t="s">
@@ -5793,10 +5862,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>338</v>
       </c>
+      <c r="D226"/>
       <c r="F226"/>
       <c r="H226"/>
       <c r="J226" t="s">
@@ -5806,10 +5876,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>339</v>
       </c>
+      <c r="D227"/>
       <c r="F227"/>
       <c r="H227"/>
       <c r="J227" t="s">
@@ -5819,10 +5890,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>340</v>
       </c>
+      <c r="D228"/>
       <c r="F228"/>
       <c r="H228"/>
       <c r="J228" t="s">
@@ -5832,10 +5904,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>341</v>
       </c>
+      <c r="D229"/>
       <c r="F229"/>
       <c r="H229"/>
       <c r="J229" t="s">
@@ -5845,10 +5918,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>342</v>
       </c>
+      <c r="D230"/>
       <c r="F230"/>
       <c r="H230"/>
       <c r="J230" t="s">
@@ -5858,10 +5932,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>343</v>
       </c>
+      <c r="D231"/>
       <c r="F231"/>
       <c r="H231"/>
       <c r="J231" t="s">
@@ -5871,10 +5946,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>344</v>
       </c>
+      <c r="D232"/>
       <c r="F232"/>
       <c r="H232"/>
       <c r="J232" t="s">
@@ -5884,10 +5960,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>345</v>
       </c>
+      <c r="D233"/>
       <c r="F233"/>
       <c r="H233"/>
       <c r="J233" t="s">
@@ -5897,10 +5974,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>346</v>
       </c>
+      <c r="D234"/>
       <c r="F234"/>
       <c r="H234"/>
       <c r="J234" t="s">
@@ -5910,10 +5988,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>347</v>
       </c>
+      <c r="D235"/>
       <c r="F235"/>
       <c r="H235"/>
       <c r="J235" t="s">
@@ -5923,10 +6002,11 @@
         <v>348</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>349</v>
       </c>
+      <c r="D236"/>
       <c r="F236"/>
       <c r="H236"/>
       <c r="J236" t="s">
@@ -5937,7 +6017,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K236" xr:uid="{EBFA538A-B8E8-514B-9D1E-B77B75EBB2E5}"/>
+  <autoFilter ref="A1:K236" xr:uid="{EBFA538A-B8E8-514B-9D1E-B77B75EBB2E5}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>